--- a/natmiOut/OldD2/LR-pairs_lrc2p/L1cam-Ephb2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/L1cam-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="H2">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="I2">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="J2">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.8783055092127</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N2">
-        <v>2.8783055092127</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O2">
-        <v>0.83605129775894</v>
+        <v>0.822428495022819</v>
       </c>
       <c r="P2">
-        <v>0.83605129775894</v>
+        <v>0.8679967027127143</v>
       </c>
       <c r="Q2">
-        <v>12.89872681902606</v>
+        <v>13.85499742201266</v>
       </c>
       <c r="R2">
-        <v>12.89872681902606</v>
+        <v>83.12998453207598</v>
       </c>
       <c r="S2">
-        <v>0.1149796557210721</v>
+        <v>0.1047861393986844</v>
       </c>
       <c r="T2">
-        <v>0.1149796557210721</v>
+        <v>0.08427448165963501</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="H3">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="I3">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="J3">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0166510490548062</v>
+        <v>0.01806466666666666</v>
       </c>
       <c r="N3">
-        <v>0.0166510490548062</v>
+        <v>0.05419399999999999</v>
       </c>
       <c r="O3">
-        <v>0.004836571770008642</v>
+        <v>0.004820411347579552</v>
       </c>
       <c r="P3">
-        <v>0.004836571770008642</v>
+        <v>0.005087495363717804</v>
       </c>
       <c r="Q3">
-        <v>0.07461936626278949</v>
+        <v>0.08120680058866664</v>
       </c>
       <c r="R3">
-        <v>0.07461936626278949</v>
+        <v>0.4872408035319999</v>
       </c>
       <c r="S3">
-        <v>0.0006651593729673189</v>
+        <v>0.0006141716860290164</v>
       </c>
       <c r="T3">
-        <v>0.0006651593729673189</v>
+        <v>0.0004939489209845751</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="H4">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="I4">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="J4">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.547781365742757</v>
+        <v>0.057175</v>
       </c>
       <c r="N4">
-        <v>0.547781365742757</v>
+        <v>0.171525</v>
       </c>
       <c r="O4">
-        <v>0.1591121304710512</v>
+        <v>0.01525668997294134</v>
       </c>
       <c r="P4">
-        <v>0.1591121304710512</v>
+        <v>0.0161020157630309</v>
       </c>
       <c r="Q4">
-        <v>2.454806194357559</v>
+        <v>0.257021007325</v>
       </c>
       <c r="R4">
-        <v>2.454806194357559</v>
+        <v>1.54212604395</v>
       </c>
       <c r="S4">
-        <v>0.02188221946625421</v>
+        <v>0.001943864605788963</v>
       </c>
       <c r="T4">
-        <v>0.02188221946625421</v>
+        <v>0.001563357358229311</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.416662286917729</v>
+        <v>4.495339</v>
       </c>
       <c r="H5">
-        <v>0.416662286917729</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="I5">
-        <v>0.01278681305501845</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="J5">
-        <v>0.01278681305501845</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.8783055092127</v>
+        <v>0.590216</v>
       </c>
       <c r="N5">
-        <v>2.8783055092127</v>
+        <v>1.180432</v>
       </c>
       <c r="O5">
-        <v>0.83605129775894</v>
+        <v>0.1574944036566601</v>
       </c>
       <c r="P5">
-        <v>0.83605129775894</v>
+        <v>0.1108137861605369</v>
       </c>
       <c r="Q5">
-        <v>1.199281355916462</v>
+        <v>2.653221003224</v>
       </c>
       <c r="R5">
-        <v>1.199281355916462</v>
+        <v>10.612884012896</v>
       </c>
       <c r="S5">
-        <v>0.01069043164884913</v>
+        <v>0.02006646247783714</v>
       </c>
       <c r="T5">
-        <v>0.01069043164884913</v>
+        <v>0.01075899754023811</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H6">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="I6">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="J6">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0166510490548062</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N6">
-        <v>0.0166510490548062</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O6">
-        <v>0.004836571770008642</v>
+        <v>0.822428495022819</v>
       </c>
       <c r="P6">
-        <v>0.004836571770008642</v>
+        <v>0.8679967027127143</v>
       </c>
       <c r="Q6">
-        <v>0.006937864178754841</v>
+        <v>1.427300255770889</v>
       </c>
       <c r="R6">
-        <v>0.006937864178754841</v>
+        <v>12.845702301938</v>
       </c>
       <c r="S6">
-        <v>6.18443390502802E-05</v>
+        <v>0.01079475361917896</v>
       </c>
       <c r="T6">
-        <v>6.18443390502802E-05</v>
+        <v>0.01302255629113096</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H7">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="I7">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="J7">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.547781365742757</v>
+        <v>0.01806466666666666</v>
       </c>
       <c r="N7">
-        <v>0.547781365742757</v>
+        <v>0.05419399999999999</v>
       </c>
       <c r="O7">
-        <v>0.1591121304710512</v>
+        <v>0.004820411347579552</v>
       </c>
       <c r="P7">
-        <v>0.1591121304710512</v>
+        <v>0.005087495363717804</v>
       </c>
       <c r="Q7">
-        <v>0.2282398365812941</v>
+        <v>0.00836568089622222</v>
       </c>
       <c r="R7">
-        <v>0.2282398365812941</v>
+        <v>0.07529112806599998</v>
       </c>
       <c r="S7">
-        <v>0.002034537067119037</v>
+        <v>6.327012397445193E-05</v>
       </c>
       <c r="T7">
-        <v>0.002034537067119037</v>
+        <v>7.632770325950273E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.76524644466899</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H8">
-        <v>6.76524644466899</v>
+        <v>1.389289</v>
       </c>
       <c r="I8">
-        <v>0.2076164420808054</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="J8">
-        <v>0.2076164420808054</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.8783055092127</v>
+        <v>0.057175</v>
       </c>
       <c r="N8">
-        <v>2.8783055092127</v>
+        <v>0.171525</v>
       </c>
       <c r="O8">
-        <v>0.83605129775894</v>
+        <v>0.01525668997294134</v>
       </c>
       <c r="P8">
-        <v>0.83605129775894</v>
+        <v>0.0161020157630309</v>
       </c>
       <c r="Q8">
-        <v>19.47244611287239</v>
+        <v>0.02647753285833334</v>
       </c>
       <c r="R8">
-        <v>19.47244611287239</v>
+        <v>0.238297795725</v>
       </c>
       <c r="S8">
-        <v>0.1735779958377512</v>
+        <v>0.0002002510981790949</v>
       </c>
       <c r="T8">
-        <v>0.1735779958377512</v>
+        <v>0.000241578575148286</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.76524644466899</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H9">
-        <v>6.76524644466899</v>
+        <v>1.389289</v>
       </c>
       <c r="I9">
-        <v>0.2076164420808054</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="J9">
-        <v>0.2076164420808054</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0166510490548062</v>
+        <v>0.590216</v>
       </c>
       <c r="N9">
-        <v>0.0166510490548062</v>
+        <v>1.180432</v>
       </c>
       <c r="O9">
-        <v>0.004836571770008642</v>
+        <v>0.1574944036566601</v>
       </c>
       <c r="P9">
-        <v>0.004836571770008642</v>
+        <v>0.1108137861605369</v>
       </c>
       <c r="Q9">
-        <v>0.1126484504180366</v>
+        <v>0.2733268654746667</v>
       </c>
       <c r="R9">
-        <v>0.1126484504180366</v>
+        <v>1.639961192848</v>
       </c>
       <c r="S9">
-        <v>0.001004151822757658</v>
+        <v>0.002067186745306037</v>
       </c>
       <c r="T9">
-        <v>0.001004151822757658</v>
+        <v>0.001662539458501335</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.76524644466899</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="H10">
-        <v>6.76524644466899</v>
+        <v>20.394899</v>
       </c>
       <c r="I10">
-        <v>0.2076164420808054</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="J10">
-        <v>0.2076164420808054</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.547781365742757</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N10">
-        <v>0.547781365742757</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O10">
-        <v>0.1591121304710512</v>
+        <v>0.822428495022819</v>
       </c>
       <c r="P10">
-        <v>0.1591121304710512</v>
+        <v>0.8679967027127143</v>
       </c>
       <c r="Q10">
-        <v>3.705875937047111</v>
+        <v>20.95290796883977</v>
       </c>
       <c r="R10">
-        <v>3.705875937047111</v>
+        <v>188.576171719558</v>
       </c>
       <c r="S10">
-        <v>0.03303429442029656</v>
+        <v>0.1584680435769946</v>
       </c>
       <c r="T10">
-        <v>0.03303429442029656</v>
+        <v>0.1911724056545689</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.039248735204421</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="H11">
-        <v>8.039248735204421</v>
+        <v>20.394899</v>
       </c>
       <c r="I11">
-        <v>0.246713882939326</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="J11">
-        <v>0.246713882939326</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.8783055092127</v>
+        <v>0.01806466666666666</v>
       </c>
       <c r="N11">
-        <v>2.8783055092127</v>
+        <v>0.05419399999999999</v>
       </c>
       <c r="O11">
-        <v>0.83605129775894</v>
+        <v>0.004820411347579552</v>
       </c>
       <c r="P11">
-        <v>0.83605129775894</v>
+        <v>0.005087495363717804</v>
       </c>
       <c r="Q11">
-        <v>23.13941392447012</v>
+        <v>0.1228090173784444</v>
       </c>
       <c r="R11">
-        <v>23.13941392447012</v>
+        <v>1.105281156406</v>
       </c>
       <c r="S11">
-        <v>0.2062654620065707</v>
+        <v>0.0009288116354310914</v>
       </c>
       <c r="T11">
-        <v>0.2062654620065707</v>
+        <v>0.001120498182076968</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.039248735204421</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="H12">
-        <v>8.039248735204421</v>
+        <v>20.394899</v>
       </c>
       <c r="I12">
-        <v>0.246713882939326</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="J12">
-        <v>0.246713882939326</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.0166510490548062</v>
+        <v>0.057175</v>
       </c>
       <c r="N12">
-        <v>0.0166510490548062</v>
+        <v>0.171525</v>
       </c>
       <c r="O12">
-        <v>0.004836571770008642</v>
+        <v>0.01525668997294134</v>
       </c>
       <c r="P12">
-        <v>0.004836571770008642</v>
+        <v>0.0161020157630309</v>
       </c>
       <c r="Q12">
-        <v>0.1338619250536775</v>
+        <v>0.3886927834416666</v>
       </c>
       <c r="R12">
-        <v>0.1338619250536775</v>
+        <v>3.498235050975</v>
       </c>
       <c r="S12">
-        <v>0.001193249401493561</v>
+        <v>0.00293970579339628</v>
       </c>
       <c r="T12">
-        <v>0.001193249401493561</v>
+        <v>0.003546397215203749</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.039248735204421</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="H13">
-        <v>8.039248735204421</v>
+        <v>20.394899</v>
       </c>
       <c r="I13">
-        <v>0.246713882939326</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="J13">
-        <v>0.246713882939326</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.547781365742757</v>
+        <v>0.590216</v>
       </c>
       <c r="N13">
-        <v>0.547781365742757</v>
+        <v>1.180432</v>
       </c>
       <c r="O13">
-        <v>0.1591121304710512</v>
+        <v>0.1574944036566601</v>
       </c>
       <c r="P13">
-        <v>0.1591121304710512</v>
+        <v>0.1108137861605369</v>
       </c>
       <c r="Q13">
-        <v>4.40375065171601</v>
+        <v>4.012465236061333</v>
       </c>
       <c r="R13">
-        <v>4.40375065171601</v>
+        <v>24.074791416368</v>
       </c>
       <c r="S13">
-        <v>0.03925517153126169</v>
+        <v>0.03034650449593666</v>
       </c>
       <c r="T13">
-        <v>0.03925517153126169</v>
+        <v>0.0244062425741868</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.01152113025883</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="H14">
-        <v>6.01152113025883</v>
+        <v>25.486596</v>
       </c>
       <c r="I14">
-        <v>0.1844856116869792</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="J14">
-        <v>0.1844856116869792</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.8783055092127</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N14">
-        <v>2.8783055092127</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O14">
-        <v>0.83605129775894</v>
+        <v>0.822428495022819</v>
       </c>
       <c r="P14">
-        <v>0.83605129775894</v>
+        <v>0.8679967027127143</v>
       </c>
       <c r="Q14">
-        <v>17.30299438797255</v>
+        <v>26.18391493024799</v>
       </c>
       <c r="R14">
-        <v>17.30299438797255</v>
+        <v>235.6552343722319</v>
       </c>
       <c r="S14">
-        <v>0.1542394350687508</v>
+        <v>0.1980304489645796</v>
       </c>
       <c r="T14">
-        <v>0.1542394350687508</v>
+        <v>0.2388996321710696</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,181 +1343,181 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.01152113025883</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="H15">
-        <v>6.01152113025883</v>
+        <v>25.486596</v>
       </c>
       <c r="I15">
-        <v>0.1844856116869792</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="J15">
-        <v>0.1844856116869792</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.0166510490548062</v>
+        <v>0.01806466666666666</v>
       </c>
       <c r="N15">
-        <v>0.0166510490548062</v>
+        <v>0.05419399999999999</v>
       </c>
       <c r="O15">
-        <v>0.004836571770008642</v>
+        <v>0.004820411347579552</v>
       </c>
       <c r="P15">
-        <v>0.004836571770008642</v>
+        <v>0.005087495363717804</v>
       </c>
       <c r="Q15">
-        <v>0.1000981332339438</v>
+        <v>0.1534689537359999</v>
       </c>
       <c r="R15">
-        <v>0.1000981332339438</v>
+        <v>1.381220583624</v>
       </c>
       <c r="S15">
-        <v>0.0008922779014580201</v>
+        <v>0.001160694490927928</v>
       </c>
       <c r="T15">
-        <v>0.0008922779014580201</v>
+        <v>0.001400236622173521</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.01152113025883</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="H16">
-        <v>6.01152113025883</v>
+        <v>25.486596</v>
       </c>
       <c r="I16">
-        <v>0.1844856116869792</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="J16">
-        <v>0.1844856116869792</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.547781365742757</v>
+        <v>0.057175</v>
       </c>
       <c r="N16">
-        <v>0.547781365742757</v>
+        <v>0.171525</v>
       </c>
       <c r="O16">
-        <v>0.1591121304710512</v>
+        <v>0.01525668997294134</v>
       </c>
       <c r="P16">
-        <v>0.1591121304710512</v>
+        <v>0.0161020157630309</v>
       </c>
       <c r="Q16">
-        <v>3.292999254924624</v>
+        <v>0.4857320421</v>
       </c>
       <c r="R16">
-        <v>3.292999254924624</v>
+        <v>4.3715883789</v>
       </c>
       <c r="S16">
-        <v>0.02935389871677033</v>
+        <v>0.003673619267011347</v>
       </c>
       <c r="T16">
-        <v>0.02935389871677033</v>
+        <v>0.004431774488288616</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.87127167097911</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="H17">
-        <v>6.87127167097911</v>
+        <v>25.486596</v>
       </c>
       <c r="I17">
-        <v>0.2108702156775774</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="J17">
-        <v>0.2108702156775774</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.8783055092127</v>
+        <v>0.590216</v>
       </c>
       <c r="N17">
-        <v>2.8783055092127</v>
+        <v>1.180432</v>
       </c>
       <c r="O17">
-        <v>0.83605129775894</v>
+        <v>0.1574944036566601</v>
       </c>
       <c r="P17">
-        <v>0.83605129775894</v>
+        <v>0.1108137861605369</v>
       </c>
       <c r="Q17">
-        <v>19.77761910587633</v>
+        <v>5.014198914911999</v>
       </c>
       <c r="R17">
-        <v>19.77761910587633</v>
+        <v>30.085193489472</v>
       </c>
       <c r="S17">
-        <v>0.1762983174759461</v>
+        <v>0.03792267370876028</v>
       </c>
       <c r="T17">
-        <v>0.1762983174759461</v>
+        <v>0.03049939322407525</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.87127167097911</v>
+        <v>6.279227333333334</v>
       </c>
       <c r="H18">
-        <v>6.87127167097911</v>
+        <v>18.837682</v>
       </c>
       <c r="I18">
-        <v>0.2108702156775774</v>
+        <v>0.1779710855497397</v>
       </c>
       <c r="J18">
-        <v>0.2108702156775774</v>
+        <v>0.2034290786507157</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.0166510490548062</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N18">
-        <v>0.0166510490548062</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O18">
-        <v>0.004836571770008642</v>
+        <v>0.822428495022819</v>
       </c>
       <c r="P18">
-        <v>0.004836571770008642</v>
+        <v>0.8679967027127143</v>
       </c>
       <c r="Q18">
-        <v>0.1144138816623733</v>
+        <v>19.35308516567155</v>
       </c>
       <c r="R18">
-        <v>0.1144138816623733</v>
+        <v>174.177766491044</v>
       </c>
       <c r="S18">
-        <v>0.001019888932281805</v>
+        <v>0.1463684920462498</v>
       </c>
       <c r="T18">
-        <v>0.001019888932281805</v>
+        <v>0.1765757695047067</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>6.279227333333334</v>
+      </c>
+      <c r="H19">
+        <v>18.837682</v>
+      </c>
+      <c r="I19">
+        <v>0.1779710855497397</v>
+      </c>
+      <c r="J19">
+        <v>0.2034290786507157</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.01806466666666666</v>
+      </c>
+      <c r="N19">
+        <v>0.05419399999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.004820411347579552</v>
+      </c>
+      <c r="P19">
+        <v>0.005087495363717804</v>
+      </c>
+      <c r="Q19">
+        <v>0.1134321487008889</v>
+      </c>
+      <c r="R19">
+        <v>1.020889338308</v>
+      </c>
+      <c r="S19">
+        <v>0.0008578938403250164</v>
+      </c>
+      <c r="T19">
+        <v>0.001034944494480901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>6.279227333333334</v>
+      </c>
+      <c r="H20">
+        <v>18.837682</v>
+      </c>
+      <c r="I20">
+        <v>0.1779710855497397</v>
+      </c>
+      <c r="J20">
+        <v>0.2034290786507157</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.057175</v>
+      </c>
+      <c r="N20">
+        <v>0.171525</v>
+      </c>
+      <c r="O20">
+        <v>0.01525668997294134</v>
+      </c>
+      <c r="P20">
+        <v>0.0161020157630309</v>
+      </c>
+      <c r="Q20">
+        <v>0.3590148227833334</v>
+      </c>
+      <c r="R20">
+        <v>3.23113340505</v>
+      </c>
+      <c r="S20">
+        <v>0.002715249676380198</v>
+      </c>
+      <c r="T20">
+        <v>0.003275618231092677</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6.279227333333334</v>
+      </c>
+      <c r="H21">
+        <v>18.837682</v>
+      </c>
+      <c r="I21">
+        <v>0.1779710855497397</v>
+      </c>
+      <c r="J21">
+        <v>0.2034290786507157</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.590216</v>
+      </c>
+      <c r="N21">
+        <v>1.180432</v>
+      </c>
+      <c r="O21">
+        <v>0.1574944036566601</v>
+      </c>
+      <c r="P21">
+        <v>0.1108137861605369</v>
+      </c>
+      <c r="Q21">
+        <v>3.706100439770667</v>
+      </c>
+      <c r="R21">
+        <v>22.236602638624</v>
+      </c>
+      <c r="S21">
+        <v>0.0280294499867847</v>
+      </c>
+      <c r="T21">
+        <v>0.02254274642043545</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>6.87127167097911</v>
-      </c>
-      <c r="H19">
-        <v>6.87127167097911</v>
-      </c>
-      <c r="I19">
-        <v>0.2108702156775774</v>
-      </c>
-      <c r="J19">
-        <v>0.2108702156775774</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.547781365742757</v>
-      </c>
-      <c r="N19">
-        <v>0.547781365742757</v>
-      </c>
-      <c r="O19">
-        <v>0.1591121304710512</v>
-      </c>
-      <c r="P19">
-        <v>0.1591121304710512</v>
-      </c>
-      <c r="Q19">
-        <v>3.763954580318453</v>
-      </c>
-      <c r="R19">
-        <v>3.763954580318453</v>
-      </c>
-      <c r="S19">
-        <v>0.0335520092693494</v>
-      </c>
-      <c r="T19">
-        <v>0.0335520092693494</v>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>8.750795</v>
+      </c>
+      <c r="H22">
+        <v>17.50159</v>
+      </c>
+      <c r="I22">
+        <v>0.2480223127622444</v>
+      </c>
+      <c r="J22">
+        <v>0.1890005537105138</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.082080666666666</v>
+      </c>
+      <c r="N22">
+        <v>9.246241999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.822428495022819</v>
+      </c>
+      <c r="P22">
+        <v>0.8679967027127143</v>
+      </c>
+      <c r="Q22">
+        <v>26.97065608746333</v>
+      </c>
+      <c r="R22">
+        <v>161.82393652478</v>
+      </c>
+      <c r="S22">
+        <v>0.2039806174171316</v>
+      </c>
+      <c r="T22">
+        <v>0.1640518574316032</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>8.750795</v>
+      </c>
+      <c r="H23">
+        <v>17.50159</v>
+      </c>
+      <c r="I23">
+        <v>0.2480223127622444</v>
+      </c>
+      <c r="J23">
+        <v>0.1890005537105138</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.01806466666666666</v>
+      </c>
+      <c r="N23">
+        <v>0.05419399999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.004820411347579552</v>
+      </c>
+      <c r="P23">
+        <v>0.005087495363717804</v>
+      </c>
+      <c r="Q23">
+        <v>0.1580801947433333</v>
+      </c>
+      <c r="R23">
+        <v>0.9484811684599999</v>
+      </c>
+      <c r="S23">
+        <v>0.001195569570892048</v>
+      </c>
+      <c r="T23">
+        <v>0.0009615394407423368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>8.750795</v>
+      </c>
+      <c r="H24">
+        <v>17.50159</v>
+      </c>
+      <c r="I24">
+        <v>0.2480223127622444</v>
+      </c>
+      <c r="J24">
+        <v>0.1890005537105138</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.057175</v>
+      </c>
+      <c r="N24">
+        <v>0.171525</v>
+      </c>
+      <c r="O24">
+        <v>0.01525668997294134</v>
+      </c>
+      <c r="P24">
+        <v>0.0161020157630309</v>
+      </c>
+      <c r="Q24">
+        <v>0.500326704125</v>
+      </c>
+      <c r="R24">
+        <v>3.00196022475</v>
+      </c>
+      <c r="S24">
+        <v>0.003783999532185455</v>
+      </c>
+      <c r="T24">
+        <v>0.003043289895068261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>8.750795</v>
+      </c>
+      <c r="H25">
+        <v>17.50159</v>
+      </c>
+      <c r="I25">
+        <v>0.2480223127622444</v>
+      </c>
+      <c r="J25">
+        <v>0.1890005537105138</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.590216</v>
+      </c>
+      <c r="N25">
+        <v>1.180432</v>
+      </c>
+      <c r="O25">
+        <v>0.1574944036566601</v>
+      </c>
+      <c r="P25">
+        <v>0.1108137861605369</v>
+      </c>
+      <c r="Q25">
+        <v>5.16485922172</v>
+      </c>
+      <c r="R25">
+        <v>20.65943688688</v>
+      </c>
+      <c r="S25">
+        <v>0.03906212624203534</v>
+      </c>
+      <c r="T25">
+        <v>0.02094386694309994</v>
       </c>
     </row>
   </sheetData>
